--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8916" windowHeight="5544" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8916" windowHeight="5544" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sign_phone" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>no.</t>
   </si>
@@ -60,6 +60,42 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf23@daum.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01098765432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd1234@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1288691481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6994</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,10 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="000\-000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +127,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,16 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,29 +457,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="16.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -448,20 +489,50 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -470,25 +541,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -496,42 +569,54 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1234567</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" style="2"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +633,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -575,12 +660,26 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>4110391871</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>8405</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8916" windowHeight="5544" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8916" windowHeight="5544" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sign_phone" sheetId="1" r:id="rId1"/>
     <sheet name="sign_kakao" sheetId="2" r:id="rId2"/>
     <sheet name="merchant_biz_no" sheetId="3" r:id="rId3"/>
     <sheet name="agency_biz_no" sheetId="4" r:id="rId4"/>
+    <sheet name="result" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>no.</t>
   </si>
@@ -45,57 +46,70 @@
     <t>01041729247</t>
   </si>
   <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>new@naver.com</t>
+  </si>
+  <si>
+    <t>01012345678</t>
+  </si>
+  <si>
+    <t>김민재</t>
+  </si>
+  <si>
+    <t>asdf23@daum.net</t>
+  </si>
+  <si>
+    <t>01098765432</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>jeong0109**</t>
+    <t>lkl123455</t>
+  </si>
+  <si>
+    <t>abcd1234@naver.com</t>
   </si>
   <si>
     <t>biz_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biz_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6422201234</t>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01012345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdf23@daum.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01098765432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcd1234@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1288691481</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1574689524</t>
+  </si>
+  <si>
+    <t>3157526874</t>
   </si>
   <si>
     <t>6994</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>merchant_sign_kakao</t>
+  </si>
+  <si>
+    <t>merchant_sign_phone</t>
+  </si>
+  <si>
+    <t>agency_sign_kakao</t>
+  </si>
+  <si>
+    <t>agency_sign_phone</t>
+  </si>
+  <si>
+    <t>fail 2024-01-26 13:39:53</t>
+  </si>
+  <si>
+    <t>pass 2024-01-26 13:39:36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,21 +174,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,72 +479,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="16.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.796875" style="1"/>
+    <col min="1" max="1" width="15.69921875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -543,47 +563,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.796875" style="1"/>
+    <col min="1" max="1" width="15.69921875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
         <v>1234567</v>
       </c>
     </row>
@@ -594,7 +615,7 @@
     <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -602,27 +623,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.796875" style="1"/>
+    <col min="1" max="1" width="15.69921875" style="5" customWidth="1"/>
+    <col min="2" max="4" width="20.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -635,51 +661,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.796875" style="1"/>
+    <col min="1" max="1" width="15.69921875" style="5" customWidth="1"/>
+    <col min="2" max="4" width="20.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>4110391871</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
         <v>8405</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.69921875" style="2" customWidth="1"/>
+    <col min="2" max="5" width="20.69921875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="8916" windowHeight="5544" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="8920" windowHeight="5540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sign_phone" sheetId="1" state="visible" r:id="rId1"/>
@@ -449,12 +449,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="15.69921875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.69921875" customWidth="1" style="3" min="2" max="4"/>
-    <col width="8.796875" customWidth="1" style="3" min="5" max="5"/>
-    <col width="8.796875" customWidth="1" style="1" min="6" max="7"/>
+    <col width="15.6640625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="20.6640625" customWidth="1" style="3" min="2" max="4"/>
+    <col width="8.83203125" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.83203125" customWidth="1" style="1" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -558,16 +558,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="15.69921875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.69921875" customWidth="1" style="3" min="2" max="4"/>
-    <col width="8.796875" customWidth="1" style="3" min="5" max="5"/>
-    <col width="8.796875" customWidth="1" style="1" min="6" max="7"/>
+    <col width="15.6640625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="20.6640625" customWidth="1" style="3" min="2" max="4"/>
+    <col width="8.83203125" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.83203125" customWidth="1" style="1" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -598,7 +598,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>lkl123455</t>
+          <t>jeong0109**</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="15.69921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.69921875" customWidth="1" style="3" min="2" max="4"/>
-    <col width="8.796875" customWidth="1" style="3" min="5" max="5"/>
-    <col width="8.796875" customWidth="1" style="1" min="6" max="7"/>
+    <col width="15.6640625" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.6640625" customWidth="1" style="3" min="2" max="4"/>
+    <col width="8.83203125" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.83203125" customWidth="1" style="1" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -684,12 +684,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="15.69921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.69921875" customWidth="1" style="3" min="2" max="4"/>
-    <col width="8.796875" customWidth="1" style="3" min="5" max="5"/>
-    <col width="8.796875" customWidth="1" style="1" min="6" max="7"/>
+    <col width="15.6640625" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.6640625" customWidth="1" style="3" min="2" max="4"/>
+    <col width="8.83203125" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.83203125" customWidth="1" style="1" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -754,14 +754,14 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="15.69921875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.69921875" customWidth="1" style="2" min="2" max="5"/>
+    <col width="15.6640625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="20.6640625" customWidth="1" style="2" min="2" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -797,17 +797,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>loginfail 2024-03-28 14:27:31</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>pass 2024-01-26 13:39:36</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>fail 2024-01-26 13:39:53</t>
+          <t>loginfail 2024-05-29 15:14:10</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>loginfail 2024-05-29 15:14:09</t>
         </is>
       </c>
     </row>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="8920" windowHeight="5540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="8920" windowHeight="5540" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sign_phone" sheetId="1" state="visible" r:id="rId1"/>
@@ -558,7 +558,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -754,14 +754,17 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
     <col width="15.6640625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.6640625" customWidth="1" style="2" min="2" max="5"/>
+    <col width="26.1640625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="20.6640625" customWidth="1" style="2" min="3" max="3"/>
+    <col width="26.83203125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="20.6640625" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -797,14 +800,10 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>loginfail 2024-05-29 15:14:10</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>loginfail 2024-05-29 15:14:09</t>
-        </is>
-      </c>
+          <t>login pass 2024-05-30 15:25:54</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -800,7 +800,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>login pass 2024-05-30 15:25:54</t>
+          <t>login fail 2024-05-31 12:01:50</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>login fail 2024-05-31 12:11:13</t>
         </is>
       </c>
       <c r="D2" s="0" t="n"/>
